--- a/src/main/resources/matrix_101x80.xlsx
+++ b/src/main/resources/matrix_101x80.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="matrix_101x80.txt" sheetId="1" r:id="rId1"/>
@@ -24274,7 +24274,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -24290,6 +24290,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -24386,7 +24392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -24412,6 +24418,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -24745,8 +24759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CC101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O14" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView tabSelected="1" topLeftCell="AF42" workbookViewId="0">
+      <selection activeCell="AP42" sqref="AP42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -34062,16 +34076,16 @@
       <c r="AM39" s="4" t="s">
         <v>3077</v>
       </c>
-      <c r="AN39" s="1" t="s">
+      <c r="AN39" s="25" t="s">
         <v>3078</v>
       </c>
-      <c r="AO39" s="2" t="s">
+      <c r="AO39" s="26" t="s">
         <v>3079</v>
       </c>
-      <c r="AP39" s="2" t="s">
+      <c r="AP39" s="26" t="s">
         <v>3080</v>
       </c>
-      <c r="AQ39" s="3" t="s">
+      <c r="AQ39" s="27" t="s">
         <v>3081</v>
       </c>
       <c r="AR39" s="5" t="s">
@@ -34304,7 +34318,7 @@
       <c r="AM40" s="4" t="s">
         <v>3157</v>
       </c>
-      <c r="AN40" s="4" t="s">
+      <c r="AN40" s="32" t="s">
         <v>3158</v>
       </c>
       <c r="AO40" s="1" t="s">
@@ -34313,7 +34327,7 @@
       <c r="AP40" s="3" t="s">
         <v>3160</v>
       </c>
-      <c r="AQ40" s="5" t="s">
+      <c r="AQ40" s="31" t="s">
         <v>3161</v>
       </c>
       <c r="AR40" s="5" t="s">
@@ -34546,7 +34560,7 @@
       <c r="AM41" s="4" t="s">
         <v>3237</v>
       </c>
-      <c r="AN41" s="4" t="s">
+      <c r="AN41" s="32" t="s">
         <v>3238</v>
       </c>
       <c r="AO41" s="4" t="s">
@@ -34555,7 +34569,7 @@
       <c r="AP41" s="5" t="s">
         <v>3240</v>
       </c>
-      <c r="AQ41" s="5" t="s">
+      <c r="AQ41" s="31" t="s">
         <v>3241</v>
       </c>
       <c r="AR41" s="5" t="s">
@@ -34788,7 +34802,7 @@
       <c r="AM42" s="4" t="s">
         <v>3317</v>
       </c>
-      <c r="AN42" s="4" t="s">
+      <c r="AN42" s="32" t="s">
         <v>3318</v>
       </c>
       <c r="AO42" s="4" t="s">
@@ -34797,7 +34811,7 @@
       <c r="AP42" s="5" t="s">
         <v>3320</v>
       </c>
-      <c r="AQ42" s="5" t="s">
+      <c r="AQ42" s="31" t="s">
         <v>3321</v>
       </c>
       <c r="AR42" s="5" t="s">
@@ -35030,7 +35044,7 @@
       <c r="AM43" s="4" t="s">
         <v>3397</v>
       </c>
-      <c r="AN43" s="4" t="s">
+      <c r="AN43" s="32" t="s">
         <v>3398</v>
       </c>
       <c r="AO43" s="4" t="s">
@@ -35039,7 +35053,7 @@
       <c r="AP43" s="5" t="s">
         <v>3400</v>
       </c>
-      <c r="AQ43" s="5" t="s">
+      <c r="AQ43" s="31" t="s">
         <v>3401</v>
       </c>
       <c r="AR43" s="5" t="s">
@@ -35272,7 +35286,7 @@
       <c r="AM44" s="4" t="s">
         <v>3477</v>
       </c>
-      <c r="AN44" s="4" t="s">
+      <c r="AN44" s="32" t="s">
         <v>3478</v>
       </c>
       <c r="AO44" s="4" t="s">
@@ -35281,7 +35295,7 @@
       <c r="AP44" s="5" t="s">
         <v>3480</v>
       </c>
-      <c r="AQ44" s="5" t="s">
+      <c r="AQ44" s="31" t="s">
         <v>3481</v>
       </c>
       <c r="AR44" s="5" t="s">
@@ -35514,7 +35528,7 @@
       <c r="AM45" s="4" t="s">
         <v>3557</v>
       </c>
-      <c r="AN45" s="4" t="s">
+      <c r="AN45" s="32" t="s">
         <v>3558</v>
       </c>
       <c r="AO45" s="4" t="s">
@@ -35523,7 +35537,7 @@
       <c r="AP45" s="5" t="s">
         <v>3560</v>
       </c>
-      <c r="AQ45" s="5" t="s">
+      <c r="AQ45" s="31" t="s">
         <v>3561</v>
       </c>
       <c r="AR45" s="5" t="s">
@@ -35756,7 +35770,7 @@
       <c r="AM46" s="4" t="s">
         <v>3637</v>
       </c>
-      <c r="AN46" s="4" t="s">
+      <c r="AN46" s="32" t="s">
         <v>3638</v>
       </c>
       <c r="AO46" s="4" t="s">
@@ -35765,7 +35779,7 @@
       <c r="AP46" s="5" t="s">
         <v>3640</v>
       </c>
-      <c r="AQ46" s="5" t="s">
+      <c r="AQ46" s="31" t="s">
         <v>3641</v>
       </c>
       <c r="AR46" s="5" t="s">
@@ -35998,7 +36012,7 @@
       <c r="AM47" s="4" t="s">
         <v>3717</v>
       </c>
-      <c r="AN47" s="4" t="s">
+      <c r="AN47" s="32" t="s">
         <v>3718</v>
       </c>
       <c r="AO47" s="4" t="s">
@@ -36007,7 +36021,7 @@
       <c r="AP47" s="5" t="s">
         <v>3720</v>
       </c>
-      <c r="AQ47" s="5" t="s">
+      <c r="AQ47" s="31" t="s">
         <v>3721</v>
       </c>
       <c r="AR47" s="5" t="s">
@@ -36240,7 +36254,7 @@
       <c r="AM48" s="4" t="s">
         <v>3797</v>
       </c>
-      <c r="AN48" s="4" t="s">
+      <c r="AN48" s="32" t="s">
         <v>3798</v>
       </c>
       <c r="AO48" s="4" t="s">
@@ -36249,7 +36263,7 @@
       <c r="AP48" s="5" t="s">
         <v>3800</v>
       </c>
-      <c r="AQ48" s="5" t="s">
+      <c r="AQ48" s="31" t="s">
         <v>3801</v>
       </c>
       <c r="AR48" s="5" t="s">
@@ -36482,7 +36496,7 @@
       <c r="AM49" s="4" t="s">
         <v>3877</v>
       </c>
-      <c r="AN49" s="4" t="s">
+      <c r="AN49" s="32" t="s">
         <v>3878</v>
       </c>
       <c r="AO49" s="4" t="s">
@@ -36491,7 +36505,7 @@
       <c r="AP49" s="5" t="s">
         <v>3880</v>
       </c>
-      <c r="AQ49" s="5" t="s">
+      <c r="AQ49" s="31" t="s">
         <v>3881</v>
       </c>
       <c r="AR49" s="5" t="s">
@@ -36724,7 +36738,7 @@
       <c r="AM50" s="4" t="s">
         <v>3957</v>
       </c>
-      <c r="AN50" s="4" t="s">
+      <c r="AN50" s="32" t="s">
         <v>3958</v>
       </c>
       <c r="AO50" s="4" t="s">
@@ -36733,7 +36747,7 @@
       <c r="AP50" s="5" t="s">
         <v>3960</v>
       </c>
-      <c r="AQ50" s="5" t="s">
+      <c r="AQ50" s="31" t="s">
         <v>3961</v>
       </c>
       <c r="AR50" s="5" t="s">
@@ -36966,7 +36980,7 @@
       <c r="AM51" s="4" t="s">
         <v>4037</v>
       </c>
-      <c r="AN51" s="4" t="s">
+      <c r="AN51" s="32" t="s">
         <v>4038</v>
       </c>
       <c r="AO51" s="4" t="s">
@@ -36975,7 +36989,7 @@
       <c r="AP51" s="5" t="s">
         <v>4040</v>
       </c>
-      <c r="AQ51" s="5" t="s">
+      <c r="AQ51" s="31" t="s">
         <v>4041</v>
       </c>
       <c r="AR51" s="5" t="s">
@@ -37208,7 +37222,7 @@
       <c r="AM52" s="4" t="s">
         <v>4117</v>
       </c>
-      <c r="AN52" s="4" t="s">
+      <c r="AN52" s="32" t="s">
         <v>4118</v>
       </c>
       <c r="AO52" s="4" t="s">
@@ -37217,7 +37231,7 @@
       <c r="AP52" s="5" t="s">
         <v>4120</v>
       </c>
-      <c r="AQ52" s="5" t="s">
+      <c r="AQ52" s="31" t="s">
         <v>4121</v>
       </c>
       <c r="AR52" s="5" t="s">
@@ -37450,7 +37464,7 @@
       <c r="AM53" s="4" t="s">
         <v>4197</v>
       </c>
-      <c r="AN53" s="4" t="s">
+      <c r="AN53" s="32" t="s">
         <v>4198</v>
       </c>
       <c r="AO53" s="4" t="s">
@@ -37459,7 +37473,7 @@
       <c r="AP53" s="5" t="s">
         <v>4200</v>
       </c>
-      <c r="AQ53" s="5" t="s">
+      <c r="AQ53" s="31" t="s">
         <v>4201</v>
       </c>
       <c r="AR53" s="5" t="s">
@@ -37692,7 +37706,7 @@
       <c r="AM54" s="4" t="s">
         <v>4277</v>
       </c>
-      <c r="AN54" s="4" t="s">
+      <c r="AN54" s="32" t="s">
         <v>4278</v>
       </c>
       <c r="AO54" s="4" t="s">
@@ -37701,7 +37715,7 @@
       <c r="AP54" s="5" t="s">
         <v>4280</v>
       </c>
-      <c r="AQ54" s="5" t="s">
+      <c r="AQ54" s="31" t="s">
         <v>4281</v>
       </c>
       <c r="AR54" s="5" t="s">
@@ -37934,7 +37948,7 @@
       <c r="AM55" s="4" t="s">
         <v>4357</v>
       </c>
-      <c r="AN55" s="4" t="s">
+      <c r="AN55" s="32" t="s">
         <v>4358</v>
       </c>
       <c r="AO55" s="4" t="s">
@@ -37943,7 +37957,7 @@
       <c r="AP55" s="5" t="s">
         <v>4360</v>
       </c>
-      <c r="AQ55" s="5" t="s">
+      <c r="AQ55" s="31" t="s">
         <v>4361</v>
       </c>
       <c r="AR55" s="5" t="s">
@@ -38176,7 +38190,7 @@
       <c r="AM56" s="4" t="s">
         <v>4437</v>
       </c>
-      <c r="AN56" s="4" t="s">
+      <c r="AN56" s="32" t="s">
         <v>4438</v>
       </c>
       <c r="AO56" s="4" t="s">
@@ -38185,7 +38199,7 @@
       <c r="AP56" s="5" t="s">
         <v>4440</v>
       </c>
-      <c r="AQ56" s="5" t="s">
+      <c r="AQ56" s="31" t="s">
         <v>4441</v>
       </c>
       <c r="AR56" s="5" t="s">
@@ -38418,7 +38432,7 @@
       <c r="AM57" s="4" t="s">
         <v>4517</v>
       </c>
-      <c r="AN57" s="4" t="s">
+      <c r="AN57" s="32" t="s">
         <v>4518</v>
       </c>
       <c r="AO57" s="4" t="s">
@@ -38427,7 +38441,7 @@
       <c r="AP57" s="5" t="s">
         <v>4520</v>
       </c>
-      <c r="AQ57" s="5" t="s">
+      <c r="AQ57" s="31" t="s">
         <v>4521</v>
       </c>
       <c r="AR57" s="5" t="s">
@@ -38660,7 +38674,7 @@
       <c r="AM58" s="4" t="s">
         <v>4597</v>
       </c>
-      <c r="AN58" s="4" t="s">
+      <c r="AN58" s="32" t="s">
         <v>4598</v>
       </c>
       <c r="AO58" s="4" t="s">
@@ -38669,7 +38683,7 @@
       <c r="AP58" s="5" t="s">
         <v>4600</v>
       </c>
-      <c r="AQ58" s="5" t="s">
+      <c r="AQ58" s="31" t="s">
         <v>4601</v>
       </c>
       <c r="AR58" s="5" t="s">
@@ -38902,7 +38916,7 @@
       <c r="AM59" s="4" t="s">
         <v>4677</v>
       </c>
-      <c r="AN59" s="4" t="s">
+      <c r="AN59" s="32" t="s">
         <v>4678</v>
       </c>
       <c r="AO59" s="4" t="s">
@@ -38911,7 +38925,7 @@
       <c r="AP59" s="5" t="s">
         <v>4680</v>
       </c>
-      <c r="AQ59" s="5" t="s">
+      <c r="AQ59" s="31" t="s">
         <v>4681</v>
       </c>
       <c r="AR59" s="5" t="s">
@@ -39144,7 +39158,7 @@
       <c r="AM60" s="4" t="s">
         <v>4757</v>
       </c>
-      <c r="AN60" s="4" t="s">
+      <c r="AN60" s="32" t="s">
         <v>4758</v>
       </c>
       <c r="AO60" s="4" t="s">
@@ -39153,7 +39167,7 @@
       <c r="AP60" s="5" t="s">
         <v>4760</v>
       </c>
-      <c r="AQ60" s="5" t="s">
+      <c r="AQ60" s="31" t="s">
         <v>4761</v>
       </c>
       <c r="AR60" s="5" t="s">
@@ -39386,7 +39400,7 @@
       <c r="AM61" s="4" t="s">
         <v>4837</v>
       </c>
-      <c r="AN61" s="4" t="s">
+      <c r="AN61" s="32" t="s">
         <v>4838</v>
       </c>
       <c r="AO61" s="4" t="s">
@@ -39395,7 +39409,7 @@
       <c r="AP61" s="5" t="s">
         <v>4840</v>
       </c>
-      <c r="AQ61" s="5" t="s">
+      <c r="AQ61" s="31" t="s">
         <v>4841</v>
       </c>
       <c r="AR61" s="5" t="s">
@@ -39628,7 +39642,7 @@
       <c r="AM62" s="4" t="s">
         <v>4917</v>
       </c>
-      <c r="AN62" s="4" t="s">
+      <c r="AN62" s="32" t="s">
         <v>4918</v>
       </c>
       <c r="AO62" s="6" t="s">
@@ -39637,7 +39651,7 @@
       <c r="AP62" s="8" t="s">
         <v>4920</v>
       </c>
-      <c r="AQ62" s="5" t="s">
+      <c r="AQ62" s="31" t="s">
         <v>4921</v>
       </c>
       <c r="AR62" s="5" t="s">
@@ -39870,16 +39884,16 @@
       <c r="AM63" s="4" t="s">
         <v>4997</v>
       </c>
-      <c r="AN63" s="6" t="s">
+      <c r="AN63" s="28" t="s">
         <v>4998</v>
       </c>
-      <c r="AO63" s="7" t="s">
+      <c r="AO63" s="29" t="s">
         <v>4999</v>
       </c>
-      <c r="AP63" s="7" t="s">
+      <c r="AP63" s="29" t="s">
         <v>5000</v>
       </c>
-      <c r="AQ63" s="8" t="s">
+      <c r="AQ63" s="30" t="s">
         <v>5001</v>
       </c>
       <c r="AR63" s="5" t="s">
